--- a/Experiments/Part4-DoNothing/PeerSim-leech.xlsx
+++ b/Experiments/Part4-DoNothing/PeerSim-leech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="1280" windowWidth="25760" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Setting1</t>
   </si>
@@ -30,10 +30,13 @@
     <t>Taste0(avg)</t>
   </si>
   <si>
-    <t>Setting2</t>
+    <t>Setting 2</t>
   </si>
   <si>
-    <t>taste1(avg)</t>
+    <t>Taste0-leech(avg)</t>
+  </si>
+  <si>
+    <t>Taste1-leech(avg)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste0(avg)</c:v>
+                  <c:v>Setting1 Taste0-leech(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -674,20 +677,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084816088"/>
-        <c:axId val="2122586904"/>
+        <c:axId val="2104429080"/>
+        <c:axId val="2104297224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084816088"/>
+        <c:axId val="2104429080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122586904"/>
+        <c:crossAx val="2104297224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,18 +722,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122586904"/>
+        <c:axId val="2104297224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084816088"/>
+        <c:crossAx val="2104429080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -757,7 +803,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting2 taste1(avg)</c:v>
+                  <c:v>Setting 2 Taste1-leech(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -767,246 +813,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$D$3:$D$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$3:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.25000000003333</c:v>
+                  <c:v>2.474999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.767708333299998</c:v>
+                  <c:v>5.020833333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.558333333399982</c:v>
+                  <c:v>7.591666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.36354166666666</c:v>
+                  <c:v>10.18333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.41666666699997</c:v>
+                  <c:v>12.79166666666662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.49270833399998</c:v>
+                  <c:v>15.19583333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.41145833266663</c:v>
+                  <c:v>17.57499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.27604166633331</c:v>
+                  <c:v>19.85416666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.16041666733331</c:v>
+                  <c:v>22.45416666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.10104166633331</c:v>
+                  <c:v>24.89999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.15833333366665</c:v>
+                  <c:v>27.27916666666663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.37604166666666</c:v>
+                  <c:v>29.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.50104166633331</c:v>
+                  <c:v>32.13333333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.40000000033332</c:v>
+                  <c:v>34.90833333333332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.12499999999992</c:v>
+                  <c:v>37.41666666666663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.18437499966655</c:v>
+                  <c:v>39.97916666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65.28541666633324</c:v>
+                  <c:v>42.46249999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.31250000099996</c:v>
+                  <c:v>44.90833333333329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.99687499933327</c:v>
+                  <c:v>47.57083333333328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.67604166666648</c:v>
+                  <c:v>50.09166666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80.57187500033328</c:v>
+                  <c:v>52.56249999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84.46770833366659</c:v>
+                  <c:v>54.92916666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88.37708333333327</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92.02187499933322</c:v>
+                  <c:v>59.8458333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.81041666633318</c:v>
+                  <c:v>62.38749999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>99.4249999999999</c:v>
+                  <c:v>65.01249999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103.1625000003333</c:v>
+                  <c:v>67.49583333333329</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>106.9187500006666</c:v>
+                  <c:v>70.06249999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>110.8187500009999</c:v>
+                  <c:v>72.56666666666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>114.7916666666665</c:v>
+                  <c:v>75.30416666666661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118.4083333336666</c:v>
+                  <c:v>77.82916666666662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>121.8718749996666</c:v>
+                  <c:v>80.4583333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>125.6510416663332</c:v>
+                  <c:v>82.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>129.2677083336666</c:v>
+                  <c:v>85.54583333333328</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>132.7968750003333</c:v>
+                  <c:v>87.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>136.0458333336665</c:v>
+                  <c:v>90.27916666666663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>139.3781249996665</c:v>
+                  <c:v>92.8208333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>142.7458333333332</c:v>
+                  <c:v>95.31666666666664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>146.0281249989999</c:v>
+                  <c:v>97.82916666666657</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>149.0791666766665</c:v>
+                  <c:v>100.2749999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>151.8385416766664</c:v>
+                  <c:v>102.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>154.7729166666664</c:v>
+                  <c:v>105.3624999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>157.2802083366664</c:v>
+                  <c:v>107.8499999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>159.4520833366664</c:v>
+                  <c:v>110.3666666666664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>161.5208333266664</c:v>
+                  <c:v>113.020833333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>163.4135416599998</c:v>
+                  <c:v>115.620833333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>165.0468749933332</c:v>
+                  <c:v>118.1166666666664</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>166.4552083366664</c:v>
+                  <c:v>120.495833333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>167.6864583299998</c:v>
+                  <c:v>122.8666666666664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>168.8374999933331</c:v>
+                  <c:v>125.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>170.0020833366665</c:v>
+                  <c:v>127.8874999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>171.271875003333</c:v>
+                  <c:v>130.495833333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>172.223958333333</c:v>
+                  <c:v>133.0541666666664</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>173.2760416566664</c:v>
+                  <c:v>135.4833333333331</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>174.0968749966665</c:v>
+                  <c:v>137.945833333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>175.0677083333332</c:v>
+                  <c:v>140.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>176.1604166666664</c:v>
+                  <c:v>143.1374999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>177.1760416666664</c:v>
+                  <c:v>145.7541666666663</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>178.3041666599996</c:v>
+                  <c:v>148.2041666666663</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179.3895833366664</c:v>
+                  <c:v>150.6833333333329</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>180.4802083333331</c:v>
+                  <c:v>153.145833333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>181.5249999999997</c:v>
+                  <c:v>155.608333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>182.495833333333</c:v>
+                  <c:v>158.2499999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>183.3958333333331</c:v>
+                  <c:v>160.858333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>184.3395833299998</c:v>
+                  <c:v>163.3416666666663</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>185.4072916566665</c:v>
+                  <c:v>165.7874999999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186.4656250066664</c:v>
+                  <c:v>168.0291666666664</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>187.5656249966664</c:v>
+                  <c:v>170.4124999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188.5562500066665</c:v>
+                  <c:v>172.9541666666662</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>189.4937499966665</c:v>
+                  <c:v>175.5041666666663</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>190.6406250033331</c:v>
+                  <c:v>177.9416666666663</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>191.6781249999998</c:v>
+                  <c:v>180.358333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>192.871874993333</c:v>
+                  <c:v>182.6749999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>193.9572916633331</c:v>
+                  <c:v>185.3291666666664</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>194.9510416699997</c:v>
+                  <c:v>187.7999999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>195.9916666699996</c:v>
+                  <c:v>190.2083333333331</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>196.9593749933332</c:v>
+                  <c:v>192.7499999999997</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>197.9520833433332</c:v>
+                  <c:v>195.1916666666664</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>198.9489583333331</c:v>
+                  <c:v>197.5541666666663</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1025,7 +1071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting2 Taste0(avg)</c:v>
+                  <c:v>Setting 2 Taste0(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1035,246 +1081,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$E$3:$E$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$3:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.349999999966664</c:v>
+                  <c:v>2.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.929166666733331</c:v>
+                  <c:v>7.316666666666657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.86666666633331</c:v>
+                  <c:v>12.93333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.39583333266664</c:v>
+                  <c:v>19.56666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.34999999999997</c:v>
+                  <c:v>26.49999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.81249999966664</c:v>
+                  <c:v>33.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.40416666666664</c:v>
+                  <c:v>41.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.3625000003333</c:v>
+                  <c:v>48.44999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.54166666699997</c:v>
+                  <c:v>55.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.96250000033331</c:v>
+                  <c:v>63.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.56666666733331</c:v>
+                  <c:v>70.73333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.59583333299997</c:v>
+                  <c:v>77.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66.76249999966664</c:v>
+                  <c:v>85.26666666666665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.3166666663333</c:v>
+                  <c:v>92.18333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78.13333333333324</c:v>
+                  <c:v>99.14999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.29583332966658</c:v>
+                  <c:v>105.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88.15833333299992</c:v>
+                  <c:v>112.4833333333329</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.60000000333326</c:v>
+                  <c:v>118.8499999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99.82916666666645</c:v>
+                  <c:v>125.2999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105.0791666733332</c:v>
+                  <c:v>131.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>109.4291666633332</c:v>
+                  <c:v>138.0166666666662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113.5625000066666</c:v>
+                  <c:v>143.6833333333331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>118.4416666599998</c:v>
+                  <c:v>149.9166666666663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>123.2958333433332</c:v>
+                  <c:v>156.3166666666664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>128.9249999999999</c:v>
+                  <c:v>162.0666666666664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>134.9666666699998</c:v>
+                  <c:v>167.9166666666664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140.0333333333332</c:v>
+                  <c:v>173.5499999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>145.3250000066666</c:v>
+                  <c:v>179.7666666666664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>150.3583333366665</c:v>
+                  <c:v>185.8166666666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>154.5500000033332</c:v>
+                  <c:v>191.4499999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>159.3166666666665</c:v>
+                  <c:v>197.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>164.3124999933332</c:v>
+                  <c:v>202.7999999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>168.7791666666664</c:v>
+                  <c:v>207.7499999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>173.9958333366665</c:v>
+                  <c:v>213.4999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>178.1125</c:v>
+                  <c:v>218.0833333333329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>182.3166666666665</c:v>
+                  <c:v>222.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>186.7708333333331</c:v>
+                  <c:v>227.6666666666663</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>191.0833333366665</c:v>
+                  <c:v>232.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195.2708333366666</c:v>
+                  <c:v>237.1499999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>198.6333333233331</c:v>
+                  <c:v>241.5499999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>203.2458333299997</c:v>
+                  <c:v>245.2499999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>206.7916666666664</c:v>
+                  <c:v>249.4166666666663</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>209.479166663333</c:v>
+                  <c:v>253.6499999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>212.7583333366664</c:v>
+                  <c:v>256.9499999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>215.3499999966665</c:v>
+                  <c:v>259.8166666666665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>217.5291666633331</c:v>
+                  <c:v>261.9833333333329</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>219.845833333333</c:v>
+                  <c:v>263.2499999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>221.9291666633332</c:v>
+                  <c:v>264.3999999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>222.6541666699998</c:v>
+                  <c:v>265.3499999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>222.8833333299998</c:v>
+                  <c:v>266.3666666666662</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>223.4083333333332</c:v>
+                  <c:v>266.5833333333331</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>223.3124999999998</c:v>
+                  <c:v>266.0166666666664</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>223.6875000033331</c:v>
+                  <c:v>264.9499999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>223.6291666733331</c:v>
+                  <c:v>263.4833333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>222.9791666666663</c:v>
+                  <c:v>261.2833333333332</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>222.3624999899997</c:v>
+                  <c:v>259.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>222.0249999999998</c:v>
+                  <c:v>257.1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>221.2291666666664</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>220.266666673333</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>219.2416666699998</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>218.0958333266665</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>217.0166666633331</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>216.250000003333</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>215.5500000033331</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>214.4416666733331</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>213.3208333266665</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>212.2208333366663</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>211.7041666599998</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>210.5916666699997</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>209.6083333299998</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>208.6208333299998</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>207.6708333366664</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>206.5791666566665</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>205.9041666666665</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>204.8458333366664</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>204.0999999999997</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>203.1125000066664</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>202.1083333333332</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.2041666633331</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1294,20 +1340,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079531464"/>
-        <c:axId val="2087978312"/>
+        <c:axId val="2104308952"/>
+        <c:axId val="2096162248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079531464"/>
+        <c:axId val="2104308952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087978312"/>
+        <c:crossAx val="2096162248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1315,18 +1380,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087978312"/>
+        <c:axId val="2096162248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079531464"/>
+        <c:crossAx val="2104308952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,9 +1443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1382,20 +1466,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1737,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1757,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1774,10 +1858,10 @@
         <v>2.3666666667333329</v>
       </c>
       <c r="D3">
-        <v>2.2500000000333302</v>
+        <v>2.4749999999999956</v>
       </c>
       <c r="E3">
-        <v>2.3499999999666636</v>
+        <v>2.9499999999999962</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1788,10 +1872,10 @@
         <v>4.5750000001333317</v>
       </c>
       <c r="D4">
-        <v>5.7677083332999981</v>
+        <v>5.0208333333333286</v>
       </c>
       <c r="E4">
-        <v>5.9291666667333311</v>
+        <v>7.3166666666666575</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1802,10 +1886,10 @@
         <v>7.108333332966664</v>
       </c>
       <c r="D5">
-        <v>9.5583333333999825</v>
+        <v>7.5916666666666615</v>
       </c>
       <c r="E5">
-        <v>10.866666666333312</v>
+        <v>12.933333333333314</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1816,10 +1900,10 @@
         <v>9.6124999995999971</v>
       </c>
       <c r="D6">
-        <v>13.363541666666658</v>
+        <v>10.183333333333309</v>
       </c>
       <c r="E6">
-        <v>16.395833332666641</v>
+        <v>19.566666666666627</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1830,10 +1914,10 @@
         <v>12.045833333666668</v>
       </c>
       <c r="D7">
-        <v>17.416666666999969</v>
+        <v>12.79166666666662</v>
       </c>
       <c r="E7">
-        <v>22.349999999999969</v>
+        <v>26.499999999999964</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1844,10 +1928,10 @@
         <v>14.120833333333319</v>
       </c>
       <c r="D8">
-        <v>21.492708333999982</v>
+        <v>15.195833333333288</v>
       </c>
       <c r="E8">
-        <v>26.812499999666642</v>
+        <v>33.8333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1858,10 +1942,10 @@
         <v>16.9375</v>
       </c>
       <c r="D9">
-        <v>25.411458332666633</v>
+        <v>17.57499999999996</v>
       </c>
       <c r="E9">
-        <v>32.40416666666664</v>
+        <v>41.083333333333293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1872,10 +1956,10 @@
         <v>19.470833332666651</v>
       </c>
       <c r="D10">
-        <v>29.27604166633331</v>
+        <v>19.854166666666639</v>
       </c>
       <c r="E10">
-        <v>38.362500000333299</v>
+        <v>48.449999999999967</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1886,10 +1970,10 @@
         <v>22.304166665999993</v>
       </c>
       <c r="D11">
-        <v>33.160416667333308</v>
+        <v>22.454166666666644</v>
       </c>
       <c r="E11">
-        <v>45.541666666999973</v>
+        <v>55.933333333333302</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1900,10 +1984,10 @@
         <v>24.908333332999995</v>
       </c>
       <c r="D12">
-        <v>37.101041666333309</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="E12">
-        <v>50.962500000333314</v>
+        <v>63.283333333333303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1914,10 +1998,10 @@
         <v>27.404166666666661</v>
       </c>
       <c r="D13">
-        <v>41.158333333666647</v>
+        <v>27.279166666666629</v>
       </c>
       <c r="E13">
-        <v>56.566666667333308</v>
+        <v>70.733333333333306</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1928,10 +2012,10 @@
         <v>30.345833333666661</v>
       </c>
       <c r="D14">
-        <v>45.376041666666659</v>
+        <v>29.633333333333304</v>
       </c>
       <c r="E14">
-        <v>61.595833332999973</v>
+        <v>77.999999999999972</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1942,10 +2026,10 @@
         <v>32.900000000333321</v>
       </c>
       <c r="D15">
-        <v>49.501041666333315</v>
+        <v>32.133333333333312</v>
       </c>
       <c r="E15">
-        <v>66.762499999666645</v>
+        <v>85.266666666666652</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1956,10 +2040,10 @@
         <v>35.179166665666664</v>
       </c>
       <c r="D16">
-        <v>53.400000000333321</v>
+        <v>34.908333333333317</v>
       </c>
       <c r="E16">
-        <v>72.316666666333319</v>
+        <v>92.183333333333309</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1970,10 +2054,10 @@
         <v>37.908333333666654</v>
       </c>
       <c r="D17">
-        <v>57.124999999999922</v>
+        <v>37.416666666666629</v>
       </c>
       <c r="E17">
-        <v>78.13333333333324</v>
+        <v>99.149999999999949</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1984,10 +2068,10 @@
         <v>40.620833333666653</v>
       </c>
       <c r="D18">
-        <v>61.184374999666545</v>
+        <v>39.979166666666629</v>
       </c>
       <c r="E18">
-        <v>83.295833329666578</v>
+        <v>105.63333333333301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1998,10 +2082,10 @@
         <v>42.879166667333322</v>
       </c>
       <c r="D19">
-        <v>65.285416666333248</v>
+        <v>42.462499999999949</v>
       </c>
       <c r="E19">
-        <v>88.158333332999916</v>
+        <v>112.48333333333292</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2012,10 +2096,10 @@
         <v>45.608333331666664</v>
       </c>
       <c r="D20">
-        <v>69.312500000999961</v>
+        <v>44.908333333333289</v>
       </c>
       <c r="E20">
-        <v>93.600000003333264</v>
+        <v>118.84999999999982</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2026,10 +2110,10 @@
         <v>48.308333332999986</v>
       </c>
       <c r="D21">
-        <v>72.996874999333272</v>
+        <v>47.570833333333283</v>
       </c>
       <c r="E21">
-        <v>99.829166666666453</v>
+        <v>125.29999999999961</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2040,10 +2124,10 @@
         <v>51.054166666</v>
       </c>
       <c r="D22">
-        <v>76.676041666666478</v>
+        <v>50.09166666666664</v>
       </c>
       <c r="E22">
-        <v>105.07916667333325</v>
+        <v>131.73333333333301</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2054,10 +2138,10 @@
         <v>53.054166667666642</v>
       </c>
       <c r="D23">
-        <v>80.571875000333279</v>
+        <v>52.562499999999979</v>
       </c>
       <c r="E23">
-        <v>109.42916666333319</v>
+        <v>138.01666666666623</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2068,10 +2152,10 @@
         <v>55.837499998999988</v>
       </c>
       <c r="D24">
-        <v>84.467708333666593</v>
+        <v>54.929166666666632</v>
       </c>
       <c r="E24">
-        <v>113.56250000666655</v>
+        <v>143.68333333333311</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2082,10 +2166,10 @@
         <v>58.370833333666667</v>
       </c>
       <c r="D25">
-        <v>88.377083333333275</v>
+        <v>57.4</v>
       </c>
       <c r="E25">
-        <v>118.44166665999983</v>
+        <v>149.91666666666632</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2096,10 +2180,10 @@
         <v>60.716666666999984</v>
       </c>
       <c r="D26">
-        <v>92.021874999333221</v>
+        <v>59.845833333333303</v>
       </c>
       <c r="E26">
-        <v>123.2958333433332</v>
+        <v>156.31666666666641</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2110,10 +2194,10 @@
         <v>63.529166665666651</v>
       </c>
       <c r="D27">
-        <v>95.810416666333182</v>
+        <v>62.387499999999974</v>
       </c>
       <c r="E27">
-        <v>128.92499999999987</v>
+        <v>162.06666666666644</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2124,10 +2208,10 @@
         <v>65.854166666999987</v>
       </c>
       <c r="D28">
-        <v>99.424999999999898</v>
+        <v>65.012499999999974</v>
       </c>
       <c r="E28">
-        <v>134.96666666999982</v>
+        <v>167.91666666666643</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2138,10 +2222,10 @@
         <v>68.391666666333336</v>
       </c>
       <c r="D29">
-        <v>103.16250000033328</v>
+        <v>67.495833333333294</v>
       </c>
       <c r="E29">
-        <v>140.03333333333322</v>
+        <v>173.54999999999953</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2152,10 +2236,10 @@
         <v>70.616666666333316</v>
       </c>
       <c r="D30">
-        <v>106.91875000066662</v>
+        <v>70.062499999999972</v>
       </c>
       <c r="E30">
-        <v>145.32500000666661</v>
+        <v>179.7666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2166,10 +2250,10 @@
         <v>73.274999998999988</v>
       </c>
       <c r="D31">
-        <v>110.81875000099987</v>
+        <v>72.566666666666634</v>
       </c>
       <c r="E31">
-        <v>150.35833333666656</v>
+        <v>185.81666666666632</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2180,10 +2264,10 @@
         <v>75.399999999666633</v>
       </c>
       <c r="D32">
-        <v>114.79166666666654</v>
+        <v>75.304166666666617</v>
       </c>
       <c r="E32">
-        <v>154.55000000333317</v>
+        <v>191.44999999999962</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2194,10 +2278,10 @@
         <v>78.304166666333316</v>
       </c>
       <c r="D33">
-        <v>118.4083333336666</v>
+        <v>77.829166666666623</v>
       </c>
       <c r="E33">
-        <v>159.31666666666655</v>
+        <v>197.23333333333301</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2208,10 +2292,10 @@
         <v>80.983333334666668</v>
       </c>
       <c r="D34">
-        <v>121.87187499966656</v>
+        <v>80.4583333333333</v>
       </c>
       <c r="E34">
-        <v>164.31249999333323</v>
+        <v>202.7999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2222,10 +2306,10 @@
         <v>83.433333333333323</v>
       </c>
       <c r="D35">
-        <v>125.65104166633323</v>
+        <v>82.933333333333294</v>
       </c>
       <c r="E35">
-        <v>168.77916666666644</v>
+        <v>207.74999999999963</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2236,10 +2320,10 @@
         <v>86.216666667666658</v>
       </c>
       <c r="D36">
-        <v>129.2677083336666</v>
+        <v>85.545833333333277</v>
       </c>
       <c r="E36">
-        <v>173.99583333666655</v>
+        <v>213.49999999999969</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2250,10 +2334,10 @@
         <v>88.137500000666677</v>
       </c>
       <c r="D37">
-        <v>132.79687500033327</v>
+        <v>87.933333333333294</v>
       </c>
       <c r="E37">
-        <v>178.11249999999993</v>
+        <v>218.08333333333294</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2264,10 +2348,10 @@
         <v>90.541666667666647</v>
       </c>
       <c r="D38">
-        <v>136.04583333366651</v>
+        <v>90.279166666666626</v>
       </c>
       <c r="E38">
-        <v>182.31666666666655</v>
+        <v>222.89999999999964</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2278,10 +2362,10 @@
         <v>93.220833329333317</v>
       </c>
       <c r="D39">
-        <v>139.37812499966654</v>
+        <v>92.820833333333297</v>
       </c>
       <c r="E39">
-        <v>186.77083333333312</v>
+        <v>227.66666666666634</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2292,10 +2376,10 @@
         <v>95.500000000333316</v>
       </c>
       <c r="D40">
-        <v>142.74583333333322</v>
+        <v>95.316666666666649</v>
       </c>
       <c r="E40">
-        <v>191.0833333366665</v>
+        <v>232.43333333333302</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2306,10 +2390,10 @@
         <v>98.004166673999947</v>
       </c>
       <c r="D41">
-        <v>146.02812499899986</v>
+        <v>97.829166666666566</v>
       </c>
       <c r="E41">
-        <v>195.27083333666656</v>
+        <v>237.14999999999981</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2320,10 +2404,10 @@
         <v>100.2833333433333</v>
       </c>
       <c r="D42">
-        <v>149.07916667666649</v>
+        <v>100.27499999999995</v>
       </c>
       <c r="E42">
-        <v>198.63333332333312</v>
+        <v>241.54999999999959</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2334,10 +2418,10 @@
         <v>102.90416666033327</v>
       </c>
       <c r="D43">
-        <v>151.83854167666641</v>
+        <v>102.96666666666631</v>
       </c>
       <c r="E43">
-        <v>203.2458333299997</v>
+        <v>245.2499999999996</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2348,10 +2432,10 @@
         <v>105.04166666999997</v>
       </c>
       <c r="D44">
-        <v>154.77291666666639</v>
+        <v>105.36249999999961</v>
       </c>
       <c r="E44">
-        <v>206.79166666666643</v>
+        <v>249.41666666666634</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2362,10 +2446,10 @@
         <v>107.23750000666662</v>
       </c>
       <c r="D45">
-        <v>157.28020833666639</v>
+        <v>107.84999999999971</v>
       </c>
       <c r="E45">
-        <v>209.47916666333299</v>
+        <v>253.64999999999981</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2376,10 +2460,10 @@
         <v>110.14166666666661</v>
       </c>
       <c r="D46">
-        <v>159.45208333666642</v>
+        <v>110.3666666666664</v>
       </c>
       <c r="E46">
-        <v>212.75833333666642</v>
+        <v>256.94999999999965</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2390,10 +2474,10 @@
         <v>112.7708333366666</v>
       </c>
       <c r="D47">
-        <v>161.52083332666641</v>
+        <v>113.020833333333</v>
       </c>
       <c r="E47">
-        <v>215.34999999666653</v>
+        <v>259.81666666666649</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2404,10 +2488,10 @@
         <v>115.43333332666661</v>
       </c>
       <c r="D48">
-        <v>163.41354165999982</v>
+        <v>115.62083333333301</v>
       </c>
       <c r="E48">
-        <v>217.52916666333311</v>
+        <v>261.98333333333289</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2418,10 +2502,10 @@
         <v>117.99583333666651</v>
       </c>
       <c r="D49">
-        <v>165.04687499333323</v>
+        <v>118.11666666666642</v>
       </c>
       <c r="E49">
-        <v>219.84583333333302</v>
+        <v>263.24999999999966</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2432,10 +2516,10 @@
         <v>120.39999999999991</v>
       </c>
       <c r="D50">
-        <v>166.4552083366664</v>
+        <v>120.49583333333301</v>
       </c>
       <c r="E50">
-        <v>221.92916666333321</v>
+        <v>264.39999999999975</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2446,10 +2530,10 @@
         <v>122.92083333333331</v>
       </c>
       <c r="D51">
-        <v>167.68645832999982</v>
+        <v>122.8666666666664</v>
       </c>
       <c r="E51">
-        <v>222.65416666999982</v>
+        <v>265.3499999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2460,10 +2544,10 @@
         <v>125.05416665999989</v>
       </c>
       <c r="D52">
-        <v>168.83749999333313</v>
+        <v>125.39999999999961</v>
       </c>
       <c r="E52">
-        <v>222.88333332999983</v>
+        <v>266.36666666666622</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2474,10 +2558,10 @@
         <v>127.4458333333333</v>
       </c>
       <c r="D53">
-        <v>170.00208333666649</v>
+        <v>127.88749999999962</v>
       </c>
       <c r="E53">
-        <v>223.40833333333322</v>
+        <v>266.58333333333314</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2488,10 +2572,10 @@
         <v>129.55416666333332</v>
       </c>
       <c r="D54">
-        <v>171.27187500333301</v>
+        <v>130.495833333333</v>
       </c>
       <c r="E54">
-        <v>223.31249999999983</v>
+        <v>266.01666666666642</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2502,10 +2586,10 @@
         <v>132.21249999999992</v>
       </c>
       <c r="D55">
-        <v>172.223958333333</v>
+        <v>133.05416666666642</v>
       </c>
       <c r="E55">
-        <v>223.68750000333313</v>
+        <v>264.94999999999982</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2516,10 +2600,10 @@
         <v>135.04583332666661</v>
       </c>
       <c r="D56">
-        <v>173.27604165666642</v>
+        <v>135.48333333333312</v>
       </c>
       <c r="E56">
-        <v>223.62916667333312</v>
+        <v>263.48333333333329</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2530,10 +2614,10 @@
         <v>137.4041666633332</v>
       </c>
       <c r="D57">
-        <v>174.09687499666651</v>
+        <v>137.94583333333301</v>
       </c>
       <c r="E57">
-        <v>222.97916666666634</v>
+        <v>261.28333333333319</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2544,10 +2628,10 @@
         <v>139.4541666799999</v>
       </c>
       <c r="D58">
-        <v>175.0677083333332</v>
+        <v>140.58333333333292</v>
       </c>
       <c r="E58">
-        <v>222.36249998999969</v>
+        <v>259.36666666666662</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2558,10 +2642,10 @@
         <v>141.79583333999989</v>
       </c>
       <c r="D59">
-        <v>176.16041666666644</v>
+        <v>143.1374999999997</v>
       </c>
       <c r="E59">
-        <v>222.02499999999981</v>
+        <v>257.10000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2572,10 +2656,10 @@
         <v>144.46249999666659</v>
       </c>
       <c r="D60">
-        <v>177.17604166666641</v>
+        <v>145.75416666666632</v>
       </c>
       <c r="E60">
-        <v>221.22916666666643</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2586,10 +2670,10 @@
         <v>146.99166665333331</v>
       </c>
       <c r="D61">
-        <v>178.30416665999962</v>
+        <v>148.20416666666631</v>
       </c>
       <c r="E61">
-        <v>220.26666667333302</v>
+        <v>252.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2600,10 +2684,10 @@
         <v>149.5000000033333</v>
       </c>
       <c r="D62">
-        <v>179.38958333666639</v>
+        <v>150.68333333333294</v>
       </c>
       <c r="E62">
-        <v>219.2416666699998</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2614,10 +2698,10 @@
         <v>151.9791666633333</v>
       </c>
       <c r="D63">
-        <v>180.48020833333311</v>
+        <v>153.145833333333</v>
       </c>
       <c r="E63">
-        <v>218.09583332666654</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2628,10 +2712,10 @@
         <v>154.4083333333333</v>
       </c>
       <c r="D64">
-        <v>181.52499999999969</v>
+        <v>155.60833333333301</v>
       </c>
       <c r="E64">
-        <v>217.01666666333313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2642,10 +2726,10 @@
         <v>157.42499999666651</v>
       </c>
       <c r="D65">
-        <v>182.49583333333302</v>
+        <v>158.24999999999972</v>
       </c>
       <c r="E65">
-        <v>216.25000000333301</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2656,10 +2740,10 @@
         <v>160.57499999333322</v>
       </c>
       <c r="D66">
-        <v>183.39583333333309</v>
+        <v>160.85833333333292</v>
       </c>
       <c r="E66">
-        <v>215.55000000333311</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2670,10 +2754,10 @@
         <v>163.2916666666666</v>
       </c>
       <c r="D67">
-        <v>184.33958332999981</v>
+        <v>163.3416666666663</v>
       </c>
       <c r="E67">
-        <v>214.44166667333312</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2684,10 +2768,10 @@
         <v>165.8624999966666</v>
       </c>
       <c r="D68">
-        <v>185.40729165666653</v>
+        <v>165.78749999999971</v>
       </c>
       <c r="E68">
-        <v>213.32083332666647</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2698,10 +2782,10 @@
         <v>168.60416667666661</v>
       </c>
       <c r="D69">
-        <v>186.46562500666639</v>
+        <v>168.02916666666641</v>
       </c>
       <c r="E69">
-        <v>212.22083333666632</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2712,10 +2796,10 @@
         <v>171.17916666333332</v>
       </c>
       <c r="D70">
-        <v>187.5656249966664</v>
+        <v>170.41249999999962</v>
       </c>
       <c r="E70">
-        <v>211.70416665999977</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2726,10 +2810,10 @@
         <v>173.58333333666661</v>
       </c>
       <c r="D71">
-        <v>188.55625000666652</v>
+        <v>172.95416666666623</v>
       </c>
       <c r="E71">
-        <v>210.59166666999971</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2740,10 +2824,10 @@
         <v>176.27083334333321</v>
       </c>
       <c r="D72">
-        <v>189.49374999666651</v>
+        <v>175.50416666666632</v>
       </c>
       <c r="E72">
-        <v>209.60833332999982</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2754,10 +2838,10 @@
         <v>178.68333333666661</v>
       </c>
       <c r="D73">
-        <v>190.6406250033331</v>
+        <v>177.94166666666632</v>
       </c>
       <c r="E73">
-        <v>208.62083332999978</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2768,10 +2852,10 @@
         <v>181.45</v>
       </c>
       <c r="D74">
-        <v>191.67812499999982</v>
+        <v>180.35833333333304</v>
       </c>
       <c r="E74">
-        <v>207.67083333666642</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2782,10 +2866,10 @@
         <v>183.37500000666651</v>
       </c>
       <c r="D75">
-        <v>192.87187499333302</v>
+        <v>182.6749999999997</v>
       </c>
       <c r="E75">
-        <v>206.57916665666653</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2796,10 +2880,10 @@
         <v>186.19999999666661</v>
       </c>
       <c r="D76">
-        <v>193.95729166333314</v>
+        <v>185.32916666666642</v>
       </c>
       <c r="E76">
-        <v>205.90416666666653</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2810,10 +2894,10 @@
         <v>188.77916667</v>
       </c>
       <c r="D77">
-        <v>194.95104166999971</v>
+        <v>187.79999999999973</v>
       </c>
       <c r="E77">
-        <v>204.84583333666637</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2824,10 +2908,10 @@
         <v>191.20000000999988</v>
       </c>
       <c r="D78">
-        <v>195.9916666699996</v>
+        <v>190.20833333333312</v>
       </c>
       <c r="E78">
-        <v>204.09999999999971</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2838,10 +2922,10 @@
         <v>193.6583333333333</v>
       </c>
       <c r="D79">
-        <v>196.95937499333323</v>
+        <v>192.74999999999972</v>
       </c>
       <c r="E79">
-        <v>203.11250000666638</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2852,10 +2936,10 @@
         <v>196.15416665999993</v>
       </c>
       <c r="D80">
-        <v>197.95208334333319</v>
+        <v>195.19166666666644</v>
       </c>
       <c r="E80">
-        <v>202.10833333333321</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2866,10 +2950,10 @@
         <v>198.04583333999989</v>
       </c>
       <c r="D81">
-        <v>198.94895833333311</v>
+        <v>197.5541666666663</v>
       </c>
       <c r="E81">
-        <v>201.2041666633331</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="82" spans="1:5">

--- a/Experiments/Part4-DoNothing/PeerSim-leech.xlsx
+++ b/Experiments/Part4-DoNothing/PeerSim-leech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="25760" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="2320" yWindow="2020" windowWidth="25760" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
@@ -21,39 +21,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Setting1</t>
-  </si>
-  <si>
-    <t>Taste1(avg)</t>
-  </si>
-  <si>
-    <t>Taste0(avg)</t>
-  </si>
-  <si>
     <t>Setting 2</t>
   </si>
   <si>
-    <t>Taste0-leech(avg)</t>
+    <t>Taste 1</t>
   </si>
   <si>
-    <t>Taste1-leech(avg)</t>
+    <t>Taste 0 - leech</t>
+  </si>
+  <si>
+    <t>Setting 1</t>
+  </si>
+  <si>
+    <t>Taste 1-leech</t>
+  </si>
+  <si>
+    <t>Taste0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,18 +85,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -136,11 +132,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Setting1-Result100.csv'!$A$1:$A$2</c:f>
+              <c:f>'Setting1-Result100.csv'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste1(avg)</c:v>
+                  <c:v>Taste 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -150,246 +146,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$A$3:$A$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$A$3:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.354166666633333</c:v>
+                  <c:v>2.452380952380948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.443749999966664</c:v>
+                  <c:v>7.947619047619042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.48125000066665</c:v>
+                  <c:v>15.08095238095233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.89687500033332</c:v>
+                  <c:v>22.43333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.38020833333332</c:v>
+                  <c:v>29.91428571428567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.94895833399998</c:v>
+                  <c:v>37.39999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.23645833399998</c:v>
+                  <c:v>44.89999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.67395833399998</c:v>
+                  <c:v>52.39999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.97812500099998</c:v>
+                  <c:v>59.89999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.410416667</c:v>
+                  <c:v>67.39999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.940625001</c:v>
+                  <c:v>74.89999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.346875001</c:v>
+                  <c:v>82.39999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.87916666699999</c:v>
+                  <c:v>89.89999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.430208333</c:v>
+                  <c:v>97.39999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.73125</c:v>
+                  <c:v>104.8999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111.8322916599999</c:v>
+                  <c:v>112.3999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>119.1302083233333</c:v>
+                  <c:v>119.8999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.10208332</c:v>
+                  <c:v>127.3999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.02291667</c:v>
+                  <c:v>134.8999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.965625</c:v>
+                  <c:v>142.3809523809519</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147.12812499</c:v>
+                  <c:v>149.77619047619</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>154.0822916633332</c:v>
+                  <c:v>156.9047619047614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.2281249866665</c:v>
+                  <c:v>163.9095238095234</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>168.09166666</c:v>
+                  <c:v>170.8809523809518</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.04270833</c:v>
+                  <c:v>177.8523809523805</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182.10729166</c:v>
+                  <c:v>184.7523809523806</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188.9020833333333</c:v>
+                  <c:v>191.6047619047614</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195.6208333433332</c:v>
+                  <c:v>198.3857142857138</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>202.2937500033333</c:v>
+                  <c:v>205.0523809523804</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>208.9958333333332</c:v>
+                  <c:v>211.7666666666662</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.3156249966665</c:v>
+                  <c:v>218.4952380952375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>221.8125000066666</c:v>
+                  <c:v>224.9238095238091</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>228.1875000033332</c:v>
+                  <c:v>231.423809523809</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>234.5583333266666</c:v>
+                  <c:v>237.6714285714282</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>241.1281249999999</c:v>
+                  <c:v>243.9333333333329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>247.19791666</c:v>
+                  <c:v>250.2047619047616</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>252.6072916733332</c:v>
+                  <c:v>256.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>257.6416666633332</c:v>
+                  <c:v>261.2952380952376</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>262.6572916666665</c:v>
+                  <c:v>266.9428571428567</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>266.7666666566666</c:v>
+                  <c:v>271.4904761904757</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>270.3114583299998</c:v>
+                  <c:v>276.2571428571423</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>273.3229166699999</c:v>
+                  <c:v>279.923809523809</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>275.2281250033333</c:v>
+                  <c:v>283.2523809523804</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>276.4312499999999</c:v>
+                  <c:v>285.3666666666662</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>277.1947916766665</c:v>
+                  <c:v>285.7095238095235</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>277.4000000066666</c:v>
+                  <c:v>284.3333333333332</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>277.1427083433331</c:v>
+                  <c:v>282.4190476190476</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>276.4916666633332</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.9739583399999</c:v>
+                  <c:v>277.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>273.2156250066666</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>271.4302083333332</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.3572916733332</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.1927083366665</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>264.8760416733331</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.4489583233332</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.9197916633332</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.5135416633332</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.0552083433332</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.6270833333332</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.0958333399999</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.60104166</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.10624999</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.7187500099999</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.2812500066665</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.7604166666666</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.2552083333332</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.7864583433332</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.2760416699999</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.7708333333332</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.2447916633332</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.7499999933332</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.33333333</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.7812499933332</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.33333333</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.8385416699999</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.3125</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.7812499866666</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.30729166</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.6510416733332</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -404,11 +400,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Setting1-Result100.csv'!$B$1:$B$2</c:f>
+              <c:f>'Setting1-Result100.csv'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste0-leech(avg)</c:v>
+                  <c:v>Taste 0 - leech</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -418,246 +414,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$B$3:$B$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$B$3:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.366666666733333</c:v>
+                  <c:v>2.699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.575000000133331</c:v>
+                  <c:v>4.944444444444441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.108333332966664</c:v>
+                  <c:v>7.244444444444442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.612499999599997</c:v>
+                  <c:v>9.766666666666653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.04583333366667</c:v>
+                  <c:v>12.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.12083333333332</c:v>
+                  <c:v>14.76666666666662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.9375</c:v>
+                  <c:v>17.41111111111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.47083333266665</c:v>
+                  <c:v>19.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.30416666599999</c:v>
+                  <c:v>22.32222222222219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.90833333299999</c:v>
+                  <c:v>24.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.40416666666666</c:v>
+                  <c:v>27.68888888888885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.34583333366666</c:v>
+                  <c:v>30.18888888888885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.90000000033332</c:v>
+                  <c:v>32.61111111111106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.17916666566666</c:v>
+                  <c:v>35.08888888888884</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.90833333366665</c:v>
+                  <c:v>37.42222222222218</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.62083333366665</c:v>
+                  <c:v>39.79999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.87916666733332</c:v>
+                  <c:v>42.0444444444444</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.60833333166666</c:v>
+                  <c:v>44.35555555555551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.30833333299998</c:v>
+                  <c:v>46.97777777777775</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.054166666</c:v>
+                  <c:v>49.51111111111108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.05416666766664</c:v>
+                  <c:v>51.7555555555555</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55.83749999899999</c:v>
+                  <c:v>54.15555555555553</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.37083333366667</c:v>
+                  <c:v>56.87777777777774</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.71666666699998</c:v>
+                  <c:v>59.31111111111105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.52916666566665</c:v>
+                  <c:v>61.67777777777773</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65.85416666699998</c:v>
+                  <c:v>64.05555555555553</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.39166666633333</c:v>
+                  <c:v>66.68888888888884</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.6166666663333</c:v>
+                  <c:v>69.3444444444444</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73.27499999899998</c:v>
+                  <c:v>72.03333333333329</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75.39999999966663</c:v>
+                  <c:v>74.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>78.3041666663333</c:v>
+                  <c:v>76.95555555555552</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80.98333333466667</c:v>
+                  <c:v>79.6444444444444</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83.43333333333332</c:v>
+                  <c:v>81.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.21666666766665</c:v>
+                  <c:v>84.48888888888885</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>88.13750000066668</c:v>
+                  <c:v>87.05555555555551</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90.54166666766664</c:v>
+                  <c:v>89.57777777777771</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>93.22083332933331</c:v>
+                  <c:v>91.78888888888885</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.50000000033331</c:v>
+                  <c:v>94.36666666666661</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98.00416667399994</c:v>
+                  <c:v>97.18888888888873</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.2833333433333</c:v>
+                  <c:v>99.83333333333303</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.9041666603333</c:v>
+                  <c:v>102.2999999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>105.04166667</c:v>
+                  <c:v>105.144444444444</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>107.2375000066666</c:v>
+                  <c:v>107.6444444444441</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>110.1416666666666</c:v>
+                  <c:v>110.144444444444</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>112.7708333366666</c:v>
+                  <c:v>112.8444444444439</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>115.4333333266666</c:v>
+                  <c:v>115.6666666666663</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>117.9958333366665</c:v>
+                  <c:v>118.144444444444</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>120.4</c:v>
+                  <c:v>120.9111111111105</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.9208333333333</c:v>
+                  <c:v>123.1666666666663</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>125.0541666599999</c:v>
+                  <c:v>125.5333333333329</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>127.4458333333333</c:v>
+                  <c:v>127.9111111111107</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>129.5541666633333</c:v>
+                  <c:v>130.3888888888885</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>132.2125</c:v>
+                  <c:v>133.1111111111107</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.0458333266666</c:v>
+                  <c:v>135.6555555555552</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>137.4041666633332</c:v>
+                  <c:v>137.8777777777775</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>139.45416668</c:v>
+                  <c:v>140.4333333333327</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>141.7958333399999</c:v>
+                  <c:v>143.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>144.4624999966666</c:v>
+                  <c:v>145.6444444444441</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>146.9916666533333</c:v>
+                  <c:v>148.2666666666662</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>149.5000000033333</c:v>
+                  <c:v>150.6666666666663</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>151.9791666633333</c:v>
+                  <c:v>153.4222222222217</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>154.4083333333333</c:v>
+                  <c:v>155.4888888888885</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>157.4249999966665</c:v>
+                  <c:v>157.955555555555</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>160.5749999933332</c:v>
+                  <c:v>160.5999999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>163.2916666666666</c:v>
+                  <c:v>163.0888888888886</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>165.8624999966666</c:v>
+                  <c:v>165.6999999999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>168.6041666766666</c:v>
+                  <c:v>168.122222222222</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>171.1791666633333</c:v>
+                  <c:v>170.7222222222217</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>173.5833333366666</c:v>
+                  <c:v>173.1222222222218</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>176.2708333433332</c:v>
+                  <c:v>175.5555555555553</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>178.6833333366666</c:v>
+                  <c:v>177.8111111111107</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>181.45</c:v>
+                  <c:v>180.6111111111107</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>183.3750000066665</c:v>
+                  <c:v>183.2888888888886</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>186.1999999966666</c:v>
+                  <c:v>185.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>188.77916667</c:v>
+                  <c:v>188.1888888888886</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>191.2000000099999</c:v>
+                  <c:v>190.5111111111106</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>193.6583333333333</c:v>
+                  <c:v>192.944444444444</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>196.15416666</c:v>
+                  <c:v>195.0777777777773</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>198.0458333399999</c:v>
+                  <c:v>197.4111111111108</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -677,11 +673,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2104429080"/>
-        <c:axId val="2104297224"/>
+        <c:axId val="-2113000056"/>
+        <c:axId val="-2092995704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104429080"/>
+        <c:axId val="-2113000056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104297224"/>
+        <c:crossAx val="-2092995704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -722,7 +718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104297224"/>
+        <c:axId val="-2092995704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104429080"/>
+        <c:crossAx val="-2113000056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -803,7 +799,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting 2 Taste1-leech(avg)</c:v>
+                  <c:v>Setting 2 Taste 1-leech</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -813,248 +809,245 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$D$3:$D$83</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$4:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.474999999999996</c:v>
+                  <c:v>4.885714285714281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.020833333333328</c:v>
+                  <c:v>7.295238095238088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.591666666666661</c:v>
+                  <c:v>9.623809523809498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.18333333333331</c:v>
+                  <c:v>12.29047619047615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.79166666666662</c:v>
+                  <c:v>14.84285714285709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.19583333333329</c:v>
+                  <c:v>17.27619047619042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.57499999999996</c:v>
+                  <c:v>19.71428571428566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.85416666666664</c:v>
+                  <c:v>22.19523809523806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.45416666666664</c:v>
+                  <c:v>24.60952380952375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.89999999999997</c:v>
+                  <c:v>26.90952380952376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.27916666666663</c:v>
+                  <c:v>29.4523809523809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.6333333333333</c:v>
+                  <c:v>32.02380952380948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.13333333333331</c:v>
+                  <c:v>34.36190476190471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.90833333333332</c:v>
+                  <c:v>36.78095238095231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.41666666666663</c:v>
+                  <c:v>39.31428571428566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.97916666666663</c:v>
+                  <c:v>41.59523809523804</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.46249999999994</c:v>
+                  <c:v>44.1523809523809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.90833333333329</c:v>
+                  <c:v>46.7380952380952</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.57083333333328</c:v>
+                  <c:v>49.20476190476187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.09166666666664</c:v>
+                  <c:v>51.70476190476184</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52.56249999999997</c:v>
+                  <c:v>54.44761904761901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.92916666666663</c:v>
+                  <c:v>56.98571428571423</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>57.4</c:v>
+                  <c:v>59.51904761904758</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59.8458333333333</c:v>
+                  <c:v>62.17619047619043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.38749999999997</c:v>
+                  <c:v>64.78571428571424</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65.01249999999997</c:v>
+                  <c:v>67.22380952380948</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67.49583333333329</c:v>
+                  <c:v>69.88571428571424</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.06249999999997</c:v>
+                  <c:v>72.37619047619043</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.56666666666663</c:v>
+                  <c:v>74.89999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75.30416666666661</c:v>
+                  <c:v>77.52857142857138</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>77.82916666666662</c:v>
+                  <c:v>80.20476190476185</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80.4583333333333</c:v>
+                  <c:v>82.67619047619044</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.93333333333329</c:v>
+                  <c:v>85.22380952380949</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.54583333333328</c:v>
+                  <c:v>87.81428571428565</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.93333333333329</c:v>
+                  <c:v>90.28095238095231</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90.27916666666663</c:v>
+                  <c:v>92.68571428571423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>92.8208333333333</c:v>
+                  <c:v>95.22380952380949</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.31666666666664</c:v>
+                  <c:v>97.73809523809511</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>97.82916666666657</c:v>
+                  <c:v>100.2571428571426</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.2749999999999</c:v>
+                  <c:v>102.828571428571</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.9666666666663</c:v>
+                  <c:v>105.3095238095234</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>105.3624999999996</c:v>
+                  <c:v>107.7476190476186</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>107.8499999999997</c:v>
+                  <c:v>110.0857142857138</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>110.3666666666664</c:v>
+                  <c:v>112.47619047619</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>113.020833333333</c:v>
+                  <c:v>114.7571428571423</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>115.620833333333</c:v>
+                  <c:v>117.323809523809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>118.1166666666664</c:v>
+                  <c:v>119.8142857142852</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>120.495833333333</c:v>
+                  <c:v>122.3238095238091</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.8666666666664</c:v>
+                  <c:v>124.6857142857138</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>125.3999999999996</c:v>
+                  <c:v>127.1285714285709</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>127.8874999999996</c:v>
+                  <c:v>129.5809523809518</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>130.495833333333</c:v>
+                  <c:v>132.1190476190472</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>133.0541666666664</c:v>
+                  <c:v>134.7619047619043</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.4833333333331</c:v>
+                  <c:v>137.2857142857139</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>137.945833333333</c:v>
+                  <c:v>139.5904761904758</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>140.583333333333</c:v>
+                  <c:v>141.9571428571423</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>143.1374999999997</c:v>
+                  <c:v>144.4619047619043</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>145.7541666666663</c:v>
+                  <c:v>146.8952380952376</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>148.2041666666663</c:v>
+                  <c:v>149.4619047619043</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>150.6833333333329</c:v>
+                  <c:v>151.9809523809519</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>153.145833333333</c:v>
+                  <c:v>154.4285714285711</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>155.608333333333</c:v>
+                  <c:v>156.7809523809518</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>158.2499999999997</c:v>
+                  <c:v>159.3523809523807</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>160.858333333333</c:v>
+                  <c:v>162.0142857142853</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>163.3416666666663</c:v>
+                  <c:v>164.4666666666661</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>165.7874999999997</c:v>
+                  <c:v>167.171428571428</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>168.0291666666664</c:v>
+                  <c:v>169.7571428571424</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.4124999999996</c:v>
+                  <c:v>172.3714285714281</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>172.9541666666662</c:v>
+                  <c:v>174.8666666666664</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>175.5041666666663</c:v>
+                  <c:v>177.4523809523805</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>177.9416666666663</c:v>
+                  <c:v>180.028571428571</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>180.358333333333</c:v>
+                  <c:v>182.4571428571426</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>182.6749999999997</c:v>
+                  <c:v>184.8380952380946</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>185.3291666666664</c:v>
+                  <c:v>187.4571428571423</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>187.7999999999997</c:v>
+                  <c:v>189.8333333333329</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>190.2083333333331</c:v>
+                  <c:v>192.4238095238091</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>192.7499999999997</c:v>
+                  <c:v>194.9190476190471</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>195.1916666666664</c:v>
+                  <c:v>197.4666666666664</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>197.5541666666663</c:v>
-                </c:pt>
-                <c:pt idx="79">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1071,7 +1064,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting 2 Taste0(avg)</c:v>
+                  <c:v>Setting 2 Taste0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1081,180 +1074,180 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$E$3:$E$83</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$3:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
-                  <c:v>2.949999999999996</c:v>
+                  <c:v>2.555555555555551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.316666666666657</c:v>
+                  <c:v>7.033333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.93333333333331</c:v>
+                  <c:v>12.97777777777775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.56666666666663</c:v>
+                  <c:v>19.49999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.49999999999996</c:v>
+                  <c:v>26.5555555555555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.8333333333333</c:v>
+                  <c:v>34.01111111111106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.0833333333333</c:v>
+                  <c:v>41.49999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.44999999999997</c:v>
+                  <c:v>48.94444444444439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.9333333333333</c:v>
+                  <c:v>56.36666666666662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.2833333333333</c:v>
+                  <c:v>63.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.73333333333331</c:v>
+                  <c:v>71.36666666666661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.99999999999997</c:v>
+                  <c:v>78.86666666666661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.26666666666665</c:v>
+                  <c:v>86.36666666666661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.18333333333331</c:v>
+                  <c:v>93.86666666666661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99.14999999999994</c:v>
+                  <c:v>101.3666666666662</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.633333333333</c:v>
+                  <c:v>108.6666666666662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.4833333333329</c:v>
+                  <c:v>115.9222222222218</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.8499999999998</c:v>
+                  <c:v>122.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125.2999999999996</c:v>
+                  <c:v>129.5222222222217</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131.733333333333</c:v>
+                  <c:v>136.0555555555552</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>138.0166666666662</c:v>
+                  <c:v>142.7444444444439</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.6833333333331</c:v>
+                  <c:v>149.3666666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.9166666666663</c:v>
+                  <c:v>155.822222222222</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156.3166666666664</c:v>
+                  <c:v>162.2666666666662</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>162.0666666666664</c:v>
+                  <c:v>168.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>167.9166666666664</c:v>
+                  <c:v>175.1333333333328</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>173.5499999999995</c:v>
+                  <c:v>181.5555555555551</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>179.7666666666664</c:v>
+                  <c:v>188.0666666666662</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>185.8166666666663</c:v>
+                  <c:v>194.2666666666662</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>191.4499999999996</c:v>
+                  <c:v>199.8666666666663</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>197.233333333333</c:v>
+                  <c:v>205.8888888888885</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>202.7999999999997</c:v>
+                  <c:v>211.3666666666663</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>207.7499999999996</c:v>
+                  <c:v>217.3111111111107</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>213.4999999999997</c:v>
+                  <c:v>222.8777777777774</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>218.0833333333329</c:v>
+                  <c:v>228.0888888888887</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>222.8999999999996</c:v>
+                  <c:v>233.5666666666663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>227.6666666666663</c:v>
+                  <c:v>239.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>232.433333333333</c:v>
+                  <c:v>244.3555555555551</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>237.1499999999998</c:v>
+                  <c:v>249.1888888888884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>241.5499999999996</c:v>
+                  <c:v>253.8888888888884</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>245.2499999999996</c:v>
+                  <c:v>257.7999999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>249.4166666666663</c:v>
+                  <c:v>260.455555555555</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>253.6499999999998</c:v>
+                  <c:v>263.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>256.9499999999996</c:v>
+                  <c:v>266.7444444444441</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>259.8166666666665</c:v>
+                  <c:v>268.4111111111106</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>261.9833333333329</c:v>
+                  <c:v>270.7666666666662</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263.2499999999997</c:v>
+                  <c:v>272.9666666666663</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>264.3999999999997</c:v>
+                  <c:v>273.3333333333328</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>265.3499999999998</c:v>
+                  <c:v>273.8111111111109</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>266.3666666666662</c:v>
+                  <c:v>272.9333333333331</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>266.5833333333331</c:v>
+                  <c:v>271.6555555555554</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>266.0166666666664</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>264.9499999999998</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.4833333333333</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.2833333333332</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.3666666666666</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.1</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>255.0</c:v>
@@ -1340,11 +1333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2104308952"/>
-        <c:axId val="2096162248"/>
+        <c:axId val="-2092594104"/>
+        <c:axId val="2131015672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104308952"/>
+        <c:axId val="-2092594104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096162248"/>
+        <c:crossAx val="2131015672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096162248"/>
+        <c:axId val="2131015672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104308952"/>
+        <c:crossAx val="-2092594104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,1145 +1815,1144 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2.3541666666333327</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.3666666667333329</v>
+      <c r="A3">
+        <v>2.4523809523809481</v>
+      </c>
+      <c r="B3">
+        <v>2.6999999999999971</v>
       </c>
       <c r="D3">
-        <v>2.4749999999999956</v>
+        <v>2.3333333333333295</v>
       </c>
       <c r="E3">
-        <v>2.9499999999999962</v>
+        <v>2.5555555555555509</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>8.4437499999666645</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.5750000001333317</v>
+      <c r="A4">
+        <v>7.9476190476190425</v>
+      </c>
+      <c r="B4">
+        <v>4.9444444444444411</v>
       </c>
       <c r="D4">
-        <v>5.0208333333333286</v>
+        <v>4.8857142857142808</v>
       </c>
       <c r="E4">
-        <v>7.3166666666666575</v>
+        <v>7.0333333333333288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>15.481250000666648</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.108333332966664</v>
+      <c r="A5">
+        <v>15.080952380952329</v>
+      </c>
+      <c r="B5">
+        <v>7.2444444444444418</v>
       </c>
       <c r="D5">
-        <v>7.5916666666666615</v>
+        <v>7.2952380952380889</v>
       </c>
       <c r="E5">
-        <v>12.933333333333314</v>
+        <v>12.977777777777749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>22.896875000333324</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.6124999995999971</v>
+      <c r="A6">
+        <v>22.433333333333291</v>
+      </c>
+      <c r="B6">
+        <v>9.7666666666666533</v>
       </c>
       <c r="D6">
-        <v>10.183333333333309</v>
+        <v>9.6238095238094985</v>
       </c>
       <c r="E6">
-        <v>19.566666666666627</v>
+        <v>19.499999999999954</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>30.380208333333321</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12.045833333666668</v>
+      <c r="A7">
+        <v>29.914285714285672</v>
+      </c>
+      <c r="B7">
+        <v>12.166666666666631</v>
       </c>
       <c r="D7">
-        <v>12.79166666666662</v>
+        <v>12.290476190476147</v>
       </c>
       <c r="E7">
-        <v>26.499999999999964</v>
+        <v>26.555555555555497</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>37.948958333999983</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14.120833333333319</v>
+      <c r="A8">
+        <v>37.399999999999963</v>
+      </c>
+      <c r="B8">
+        <v>14.766666666666623</v>
       </c>
       <c r="D8">
-        <v>15.195833333333288</v>
+        <v>14.842857142857088</v>
       </c>
       <c r="E8">
-        <v>33.8333333333333</v>
+        <v>34.011111111111063</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>45.236458333999984</v>
-      </c>
-      <c r="B9" s="1">
-        <v>16.9375</v>
+      <c r="A9">
+        <v>44.899999999999963</v>
+      </c>
+      <c r="B9">
+        <v>17.411111111111079</v>
       </c>
       <c r="D9">
-        <v>17.57499999999996</v>
+        <v>17.276190476190418</v>
       </c>
       <c r="E9">
-        <v>41.083333333333293</v>
+        <v>41.49999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>52.673958333999984</v>
-      </c>
-      <c r="B10" s="1">
-        <v>19.470833332666651</v>
+      <c r="A10">
+        <v>52.399999999999963</v>
+      </c>
+      <c r="B10">
+        <v>19.833333333333297</v>
       </c>
       <c r="D10">
-        <v>19.854166666666639</v>
+        <v>19.714285714285658</v>
       </c>
       <c r="E10">
-        <v>48.449999999999967</v>
+        <v>48.944444444444393</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>59.978125000999988</v>
-      </c>
-      <c r="B11" s="1">
-        <v>22.304166665999993</v>
+      <c r="A11">
+        <v>59.899999999999963</v>
+      </c>
+      <c r="B11">
+        <v>22.322222222222191</v>
       </c>
       <c r="D11">
-        <v>22.454166666666644</v>
+        <v>22.195238095238061</v>
       </c>
       <c r="E11">
-        <v>55.933333333333302</v>
+        <v>56.366666666666617</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>67.410416666999993</v>
-      </c>
-      <c r="B12" s="1">
-        <v>24.908333332999995</v>
+      <c r="A12">
+        <v>67.399999999999963</v>
+      </c>
+      <c r="B12">
+        <v>24.933333333333302</v>
       </c>
       <c r="D12">
-        <v>24.89999999999997</v>
+        <v>24.609523809523751</v>
       </c>
       <c r="E12">
-        <v>63.283333333333303</v>
+        <v>63.866666666666603</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>74.940625001000001</v>
-      </c>
-      <c r="B13" s="1">
-        <v>27.404166666666661</v>
+      <c r="A13">
+        <v>74.899999999999963</v>
+      </c>
+      <c r="B13">
+        <v>27.688888888888847</v>
       </c>
       <c r="D13">
-        <v>27.279166666666629</v>
+        <v>26.909523809523762</v>
       </c>
       <c r="E13">
-        <v>70.733333333333306</v>
+        <v>71.366666666666617</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>82.346875001000001</v>
-      </c>
-      <c r="B14" s="1">
-        <v>30.345833333666661</v>
+      <c r="A14">
+        <v>82.399999999999963</v>
+      </c>
+      <c r="B14">
+        <v>30.188888888888851</v>
       </c>
       <c r="D14">
-        <v>29.633333333333304</v>
+        <v>29.452380952380896</v>
       </c>
       <c r="E14">
-        <v>77.999999999999972</v>
+        <v>78.866666666666617</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>89.879166666999993</v>
-      </c>
-      <c r="B15" s="1">
-        <v>32.900000000333321</v>
+      <c r="A15">
+        <v>89.899999999999963</v>
+      </c>
+      <c r="B15">
+        <v>32.611111111111065</v>
       </c>
       <c r="D15">
-        <v>32.133333333333312</v>
+        <v>32.023809523809483</v>
       </c>
       <c r="E15">
-        <v>85.266666666666652</v>
+        <v>86.366666666666617</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>97.430208332999996</v>
-      </c>
-      <c r="B16" s="1">
-        <v>35.179166665666664</v>
+      <c r="A16">
+        <v>97.399999999999963</v>
+      </c>
+      <c r="B16">
+        <v>35.088888888888839</v>
       </c>
       <c r="D16">
-        <v>34.908333333333317</v>
+        <v>34.361904761904711</v>
       </c>
       <c r="E16">
-        <v>92.183333333333309</v>
+        <v>93.866666666666617</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>104.7312499999999</v>
-      </c>
-      <c r="B17" s="1">
-        <v>37.908333333666654</v>
+      <c r="A17">
+        <v>104.89999999999949</v>
+      </c>
+      <c r="B17">
+        <v>37.422222222222182</v>
       </c>
       <c r="D17">
-        <v>37.416666666666629</v>
+        <v>36.780952380952314</v>
       </c>
       <c r="E17">
-        <v>99.149999999999949</v>
+        <v>101.36666666666619</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>111.8322916599999</v>
-      </c>
-      <c r="B18" s="1">
-        <v>40.620833333666653</v>
+      <c r="A18">
+        <v>112.39999999999949</v>
+      </c>
+      <c r="B18">
+        <v>39.799999999999969</v>
       </c>
       <c r="D18">
-        <v>39.979166666666629</v>
+        <v>39.31428571428566</v>
       </c>
       <c r="E18">
-        <v>105.63333333333301</v>
+        <v>108.6666666666662</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>119.13020832333329</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42.879166667333322</v>
+      <c r="A19">
+        <v>119.89999999999949</v>
+      </c>
+      <c r="B19">
+        <v>42.044444444444402</v>
       </c>
       <c r="D19">
-        <v>42.462499999999949</v>
+        <v>41.595238095238045</v>
       </c>
       <c r="E19">
-        <v>112.48333333333292</v>
+        <v>115.92222222222181</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>126.10208331999999</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45.608333331666664</v>
+      <c r="A20">
+        <v>127.39999999999949</v>
+      </c>
+      <c r="B20">
+        <v>44.355555555555512</v>
       </c>
       <c r="D20">
-        <v>44.908333333333289</v>
+        <v>44.152380952380902</v>
       </c>
       <c r="E20">
-        <v>118.84999999999982</v>
+        <v>122.833333333333</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>133.02291666999992</v>
-      </c>
-      <c r="B21" s="1">
-        <v>48.308333332999986</v>
+      <c r="A21">
+        <v>134.89999999999949</v>
+      </c>
+      <c r="B21">
+        <v>46.977777777777746</v>
       </c>
       <c r="D21">
-        <v>47.570833333333283</v>
+        <v>46.738095238095198</v>
       </c>
       <c r="E21">
-        <v>125.29999999999961</v>
+        <v>129.52222222222167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>139.9656249999999</v>
-      </c>
-      <c r="B22" s="1">
-        <v>51.054166666</v>
+      <c r="A22">
+        <v>142.3809523809519</v>
+      </c>
+      <c r="B22">
+        <v>49.511111111111077</v>
       </c>
       <c r="D22">
-        <v>50.09166666666664</v>
+        <v>49.204761904761867</v>
       </c>
       <c r="E22">
-        <v>131.73333333333301</v>
+        <v>136.0555555555552</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>147.12812498999992</v>
-      </c>
-      <c r="B23" s="1">
-        <v>53.054166667666642</v>
+      <c r="A23">
+        <v>149.77619047619001</v>
+      </c>
+      <c r="B23">
+        <v>51.755555555555496</v>
       </c>
       <c r="D23">
-        <v>52.562499999999979</v>
+        <v>51.704761904761845</v>
       </c>
       <c r="E23">
-        <v>138.01666666666623</v>
+        <v>142.7444444444439</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>154.08229166333319</v>
-      </c>
-      <c r="B24" s="1">
-        <v>55.837499998999988</v>
+      <c r="A24">
+        <v>156.90476190476141</v>
+      </c>
+      <c r="B24">
+        <v>54.15555555555553</v>
       </c>
       <c r="D24">
-        <v>54.929166666666632</v>
+        <v>54.447619047619014</v>
       </c>
       <c r="E24">
-        <v>143.68333333333311</v>
+        <v>149.36666666666628</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>161.22812498666653</v>
-      </c>
-      <c r="B25" s="1">
-        <v>58.370833333666667</v>
+      <c r="A25">
+        <v>163.90952380952339</v>
+      </c>
+      <c r="B25">
+        <v>56.877777777777737</v>
       </c>
       <c r="D25">
-        <v>57.4</v>
+        <v>56.985714285714231</v>
       </c>
       <c r="E25">
-        <v>149.91666666666632</v>
+        <v>155.82222222222191</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>168.0916666599999</v>
-      </c>
-      <c r="B26" s="1">
-        <v>60.716666666999984</v>
+      <c r="A26">
+        <v>170.88095238095181</v>
+      </c>
+      <c r="B26">
+        <v>59.311111111111053</v>
       </c>
       <c r="D26">
-        <v>59.845833333333303</v>
+        <v>59.519047619047583</v>
       </c>
       <c r="E26">
-        <v>156.31666666666641</v>
+        <v>162.2666666666662</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>175.04270832999993</v>
-      </c>
-      <c r="B27" s="1">
-        <v>63.529166665666651</v>
+      <c r="A27">
+        <v>177.85238095238049</v>
+      </c>
+      <c r="B27">
+        <v>61.677777777777735</v>
       </c>
       <c r="D27">
-        <v>62.387499999999974</v>
+        <v>62.176190476190428</v>
       </c>
       <c r="E27">
-        <v>162.06666666666644</v>
+        <v>168.69999999999959</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>182.10729165999993</v>
-      </c>
-      <c r="B28" s="1">
-        <v>65.854166666999987</v>
+      <c r="A28">
+        <v>184.75238095238058</v>
+      </c>
+      <c r="B28">
+        <v>64.055555555555529</v>
       </c>
       <c r="D28">
-        <v>65.012499999999974</v>
+        <v>64.785714285714249</v>
       </c>
       <c r="E28">
-        <v>167.91666666666643</v>
+        <v>175.13333333333281</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>188.90208333333331</v>
-      </c>
-      <c r="B29" s="1">
-        <v>68.391666666333336</v>
+      <c r="A29">
+        <v>191.6047619047614</v>
+      </c>
+      <c r="B29">
+        <v>66.68888888888884</v>
       </c>
       <c r="D29">
-        <v>67.495833333333294</v>
+        <v>67.223809523809479</v>
       </c>
       <c r="E29">
-        <v>173.54999999999953</v>
+        <v>181.55555555555509</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>195.6208333433332</v>
-      </c>
-      <c r="B30" s="1">
-        <v>70.616666666333316</v>
+      <c r="A30">
+        <v>198.38571428571379</v>
+      </c>
+      <c r="B30">
+        <v>69.344444444444392</v>
       </c>
       <c r="D30">
-        <v>70.062499999999972</v>
+        <v>69.885714285714243</v>
       </c>
       <c r="E30">
-        <v>179.7666666666664</v>
+        <v>188.06666666666621</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>202.29375000333329</v>
-      </c>
-      <c r="B31" s="1">
-        <v>73.274999998999988</v>
+      <c r="A31">
+        <v>205.05238095238042</v>
+      </c>
+      <c r="B31">
+        <v>72.033333333333289</v>
       </c>
       <c r="D31">
-        <v>72.566666666666634</v>
+        <v>72.37619047619043</v>
       </c>
       <c r="E31">
-        <v>185.81666666666632</v>
+        <v>194.2666666666662</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>208.99583333333322</v>
-      </c>
-      <c r="B32" s="1">
-        <v>75.399999999666633</v>
+      <c r="A32">
+        <v>211.7666666666662</v>
+      </c>
+      <c r="B32">
+        <v>74.533333333333303</v>
       </c>
       <c r="D32">
-        <v>75.304166666666617</v>
+        <v>74.899999999999977</v>
       </c>
       <c r="E32">
-        <v>191.44999999999962</v>
+        <v>199.86666666666628</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>215.31562499666651</v>
-      </c>
-      <c r="B33" s="1">
-        <v>78.304166666333316</v>
+      <c r="A33">
+        <v>218.49523809523754</v>
+      </c>
+      <c r="B33">
+        <v>76.95555555555552</v>
       </c>
       <c r="D33">
-        <v>77.829166666666623</v>
+        <v>77.528571428571382</v>
       </c>
       <c r="E33">
-        <v>197.23333333333301</v>
+        <v>205.88888888888852</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>221.8125000066666</v>
-      </c>
-      <c r="B34" s="1">
-        <v>80.983333334666668</v>
+      <c r="A34">
+        <v>224.9238095238091</v>
+      </c>
+      <c r="B34">
+        <v>79.644444444444403</v>
       </c>
       <c r="D34">
-        <v>80.4583333333333</v>
+        <v>80.204761904761853</v>
       </c>
       <c r="E34">
-        <v>202.7999999999997</v>
+        <v>211.36666666666633</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>228.18750000333321</v>
-      </c>
-      <c r="B35" s="1">
-        <v>83.433333333333323</v>
+      <c r="A35">
+        <v>231.42380952380898</v>
+      </c>
+      <c r="B35">
+        <v>81.999999999999957</v>
       </c>
       <c r="D35">
-        <v>82.933333333333294</v>
+        <v>82.676190476190442</v>
       </c>
       <c r="E35">
-        <v>207.74999999999963</v>
+        <v>217.31111111111068</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>234.55833332666663</v>
-      </c>
-      <c r="B36" s="1">
-        <v>86.216666667666658</v>
+      <c r="A36">
+        <v>237.67142857142818</v>
+      </c>
+      <c r="B36">
+        <v>84.488888888888852</v>
       </c>
       <c r="D36">
-        <v>85.545833333333277</v>
+        <v>85.223809523809493</v>
       </c>
       <c r="E36">
-        <v>213.49999999999969</v>
+        <v>222.87777777777742</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>241.1281249999999</v>
-      </c>
-      <c r="B37" s="1">
-        <v>88.137500000666677</v>
+      <c r="A37">
+        <v>243.93333333333294</v>
+      </c>
+      <c r="B37">
+        <v>87.055555555555515</v>
       </c>
       <c r="D37">
-        <v>87.933333333333294</v>
+        <v>87.81428571428566</v>
       </c>
       <c r="E37">
-        <v>218.08333333333294</v>
+        <v>228.08888888888868</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>247.19791665999992</v>
-      </c>
-      <c r="B38" s="1">
-        <v>90.541666667666647</v>
+      <c r="A38">
+        <v>250.2047619047616</v>
+      </c>
+      <c r="B38">
+        <v>89.577777777777712</v>
       </c>
       <c r="D38">
-        <v>90.279166666666626</v>
+        <v>90.280952380952314</v>
       </c>
       <c r="E38">
-        <v>222.89999999999964</v>
+        <v>233.56666666666632</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>252.60729167333321</v>
-      </c>
-      <c r="B39" s="1">
-        <v>93.220833329333317</v>
+      <c r="A39">
+        <v>256.03333333333291</v>
+      </c>
+      <c r="B39">
+        <v>91.788888888888849</v>
       </c>
       <c r="D39">
-        <v>92.820833333333297</v>
+        <v>92.685714285714226</v>
       </c>
       <c r="E39">
-        <v>227.66666666666634</v>
+        <v>239.13333333333298</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>257.64166666333324</v>
-      </c>
-      <c r="B40" s="1">
-        <v>95.500000000333316</v>
+      <c r="A40">
+        <v>261.29523809523755</v>
+      </c>
+      <c r="B40">
+        <v>94.366666666666617</v>
       </c>
       <c r="D40">
-        <v>95.316666666666649</v>
+        <v>95.223809523809493</v>
       </c>
       <c r="E40">
-        <v>232.43333333333302</v>
+        <v>244.3555555555551</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>262.65729166666659</v>
-      </c>
-      <c r="B41" s="1">
-        <v>98.004166673999947</v>
+      <c r="A41">
+        <v>266.94285714285672</v>
+      </c>
+      <c r="B41">
+        <v>97.188888888888727</v>
       </c>
       <c r="D41">
-        <v>97.829166666666566</v>
+        <v>97.738095238095113</v>
       </c>
       <c r="E41">
-        <v>237.14999999999981</v>
+        <v>249.18888888888841</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>266.76666665666664</v>
-      </c>
-      <c r="B42" s="1">
-        <v>100.2833333433333</v>
+      <c r="A42">
+        <v>271.4904761904757</v>
+      </c>
+      <c r="B42">
+        <v>99.83333333333303</v>
       </c>
       <c r="D42">
-        <v>100.27499999999995</v>
+        <v>100.25714285714261</v>
       </c>
       <c r="E42">
-        <v>241.54999999999959</v>
+        <v>253.8888888888884</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>270.31145832999982</v>
-      </c>
-      <c r="B43" s="1">
-        <v>102.90416666033327</v>
+      <c r="A43">
+        <v>276.2571428571423</v>
+      </c>
+      <c r="B43">
+        <v>102.29999999999954</v>
       </c>
       <c r="D43">
-        <v>102.96666666666631</v>
+        <v>102.828571428571</v>
       </c>
       <c r="E43">
-        <v>245.2499999999996</v>
+        <v>257.79999999999939</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>273.32291666999993</v>
-      </c>
-      <c r="B44" s="1">
-        <v>105.04166666999997</v>
+      <c r="A44">
+        <v>279.92380952380898</v>
+      </c>
+      <c r="B44">
+        <v>105.14444444444396</v>
       </c>
       <c r="D44">
-        <v>105.36249999999961</v>
+        <v>105.3095238095234</v>
       </c>
       <c r="E44">
-        <v>249.41666666666634</v>
+        <v>260.45555555555495</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>275.22812500333328</v>
-      </c>
-      <c r="B45" s="1">
-        <v>107.23750000666662</v>
+      <c r="A45">
+        <v>283.25238095238041</v>
+      </c>
+      <c r="B45">
+        <v>107.64444444444409</v>
       </c>
       <c r="D45">
-        <v>107.84999999999971</v>
+        <v>107.7476190476186</v>
       </c>
       <c r="E45">
-        <v>253.64999999999981</v>
+        <v>263.89999999999958</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>276.43124999999992</v>
-      </c>
-      <c r="B46" s="1">
-        <v>110.14166666666661</v>
+      <c r="A46">
+        <v>285.36666666666622</v>
+      </c>
+      <c r="B46">
+        <v>110.14444444444398</v>
       </c>
       <c r="D46">
-        <v>110.3666666666664</v>
+        <v>110.08571428571381</v>
       </c>
       <c r="E46">
-        <v>256.94999999999965</v>
+        <v>266.74444444444413</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>277.19479167666657</v>
-      </c>
-      <c r="B47" s="1">
-        <v>112.7708333366666</v>
+      <c r="A47">
+        <v>285.70952380952349</v>
+      </c>
+      <c r="B47">
+        <v>112.84444444444389</v>
       </c>
       <c r="D47">
-        <v>113.020833333333</v>
+        <v>112.47619047619</v>
       </c>
       <c r="E47">
-        <v>259.81666666666649</v>
+        <v>268.41111111111059</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>277.40000000666657</v>
-      </c>
-      <c r="B48" s="1">
-        <v>115.43333332666661</v>
+      <c r="A48">
+        <v>284.3333333333332</v>
+      </c>
+      <c r="B48">
+        <v>115.66666666666629</v>
       </c>
       <c r="D48">
-        <v>115.62083333333301</v>
+        <v>114.75714285714233</v>
       </c>
       <c r="E48">
-        <v>261.98333333333289</v>
+        <v>270.76666666666625</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>277.1427083433332</v>
-      </c>
-      <c r="B49" s="1">
-        <v>117.99583333666651</v>
+      <c r="A49">
+        <v>282.4190476190476</v>
+      </c>
+      <c r="B49">
+        <v>118.14444444444401</v>
       </c>
       <c r="D49">
-        <v>118.11666666666642</v>
+        <v>117.32380952380899</v>
       </c>
       <c r="E49">
-        <v>263.24999999999966</v>
+        <v>272.9666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>276.49166666333321</v>
-      </c>
-      <c r="B50" s="1">
-        <v>120.39999999999991</v>
+      <c r="A50">
+        <v>280</v>
+      </c>
+      <c r="B50">
+        <v>120.9111111111105</v>
       </c>
       <c r="D50">
-        <v>120.49583333333301</v>
+        <v>119.81428571428521</v>
       </c>
       <c r="E50">
-        <v>264.39999999999975</v>
+        <v>273.3333333333328</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>274.97395833999991</v>
-      </c>
-      <c r="B51" s="1">
-        <v>122.92083333333331</v>
+      <c r="A51">
+        <v>277.5</v>
+      </c>
+      <c r="B51">
+        <v>123.16666666666632</v>
       </c>
       <c r="D51">
-        <v>122.8666666666664</v>
+        <v>122.32380952380909</v>
       </c>
       <c r="E51">
-        <v>265.3499999999998</v>
+        <v>273.8111111111109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>273.21562500666658</v>
-      </c>
-      <c r="B52" s="1">
-        <v>125.05416665999989</v>
+      <c r="A52">
+        <v>275</v>
+      </c>
+      <c r="B52">
+        <v>125.53333333333289</v>
       </c>
       <c r="D52">
-        <v>125.39999999999961</v>
+        <v>124.68571428571381</v>
       </c>
       <c r="E52">
-        <v>266.36666666666622</v>
+        <v>272.93333333333311</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>271.43020833333321</v>
-      </c>
-      <c r="B53" s="1">
-        <v>127.4458333333333</v>
+      <c r="A53">
+        <v>272.5</v>
+      </c>
+      <c r="B53">
+        <v>127.9111111111107</v>
       </c>
       <c r="D53">
-        <v>127.88749999999962</v>
+        <v>127.12857142857089</v>
       </c>
       <c r="E53">
-        <v>266.58333333333314</v>
+        <v>271.6555555555554</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>269.35729167333329</v>
-      </c>
-      <c r="B54" s="1">
-        <v>129.55416666333332</v>
+      <c r="A54">
+        <v>270</v>
+      </c>
+      <c r="B54">
+        <v>130.38888888888849</v>
       </c>
       <c r="D54">
-        <v>130.495833333333</v>
+        <v>129.58095238095177</v>
       </c>
       <c r="E54">
-        <v>266.01666666666642</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>267.1927083366665</v>
-      </c>
-      <c r="B55" s="1">
-        <v>132.21249999999992</v>
+      <c r="A55">
+        <v>267.5</v>
+      </c>
+      <c r="B55">
+        <v>133.11111111111069</v>
       </c>
       <c r="D55">
-        <v>133.05416666666642</v>
+        <v>132.11904761904719</v>
       </c>
       <c r="E55">
-        <v>264.94999999999982</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>264.87604167333319</v>
-      </c>
-      <c r="B56" s="1">
-        <v>135.04583332666661</v>
+      <c r="A56">
+        <v>265</v>
+      </c>
+      <c r="B56">
+        <v>135.65555555555517</v>
       </c>
       <c r="D56">
-        <v>135.48333333333312</v>
+        <v>134.7619047619043</v>
       </c>
       <c r="E56">
-        <v>263.48333333333329</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>262.44895832333322</v>
-      </c>
-      <c r="B57" s="1">
-        <v>137.4041666633332</v>
+      <c r="A57">
+        <v>262.5</v>
+      </c>
+      <c r="B57">
+        <v>137.87777777777748</v>
       </c>
       <c r="D57">
-        <v>137.94583333333301</v>
+        <v>137.28571428571388</v>
       </c>
       <c r="E57">
-        <v>261.28333333333319</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>259.91979166333323</v>
-      </c>
-      <c r="B58" s="1">
-        <v>139.4541666799999</v>
+      <c r="A58">
+        <v>260</v>
+      </c>
+      <c r="B58">
+        <v>140.43333333333271</v>
       </c>
       <c r="D58">
-        <v>140.58333333333292</v>
+        <v>139.59047619047581</v>
       </c>
       <c r="E58">
-        <v>259.36666666666662</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>257.51354166333323</v>
-      </c>
-      <c r="B59" s="1">
-        <v>141.79583333999989</v>
+      <c r="A59">
+        <v>257.5</v>
+      </c>
+      <c r="B59">
+        <v>143.03333333333291</v>
       </c>
       <c r="D59">
-        <v>143.1374999999997</v>
+        <v>141.95714285714229</v>
       </c>
       <c r="E59">
-        <v>257.10000000000002</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>255.05520834333319</v>
-      </c>
-      <c r="B60" s="1">
-        <v>144.46249999666659</v>
+      <c r="A60">
+        <v>255</v>
+      </c>
+      <c r="B60">
+        <v>145.6444444444441</v>
       </c>
       <c r="D60">
-        <v>145.75416666666632</v>
+        <v>144.46190476190432</v>
       </c>
       <c r="E60">
         <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>252.62708333333322</v>
-      </c>
-      <c r="B61" s="1">
-        <v>146.99166665333331</v>
+      <c r="A61">
+        <v>252.5</v>
+      </c>
+      <c r="B61">
+        <v>148.2666666666662</v>
       </c>
       <c r="D61">
-        <v>148.20416666666631</v>
+        <v>146.89523809523757</v>
       </c>
       <c r="E61">
         <v>252.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>250.0958333399999</v>
-      </c>
-      <c r="B62" s="1">
-        <v>149.5000000033333</v>
+      <c r="A62">
+        <v>250</v>
+      </c>
+      <c r="B62">
+        <v>150.66666666666632</v>
       </c>
       <c r="D62">
-        <v>150.68333333333294</v>
+        <v>149.46190476190429</v>
       </c>
       <c r="E62">
         <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>247.60104165999991</v>
-      </c>
-      <c r="B63" s="1">
-        <v>151.9791666633333</v>
+      <c r="A63">
+        <v>247.5</v>
+      </c>
+      <c r="B63">
+        <v>153.42222222222171</v>
       </c>
       <c r="D63">
-        <v>153.145833333333</v>
+        <v>151.98095238095189</v>
       </c>
       <c r="E63">
         <v>247.5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>245.10624998999992</v>
-      </c>
-      <c r="B64" s="1">
-        <v>154.4083333333333</v>
+      <c r="A64">
+        <v>245</v>
+      </c>
+      <c r="B64">
+        <v>155.48888888888851</v>
       </c>
       <c r="D64">
-        <v>155.60833333333301</v>
+        <v>154.42857142857113</v>
       </c>
       <c r="E64">
         <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>242.71875000999989</v>
-      </c>
-      <c r="B65" s="1">
-        <v>157.42499999666651</v>
+      <c r="A65">
+        <v>242.5</v>
+      </c>
+      <c r="B65">
+        <v>157.95555555555501</v>
       </c>
       <c r="D65">
-        <v>158.24999999999972</v>
+        <v>156.78095238095179</v>
       </c>
       <c r="E65">
         <v>242.5</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>240.28125000666651</v>
-      </c>
-      <c r="B66" s="1">
-        <v>160.57499999333322</v>
+      <c r="A66">
+        <v>240</v>
+      </c>
+      <c r="B66">
+        <v>160.5999999999996</v>
       </c>
       <c r="D66">
-        <v>160.85833333333292</v>
+        <v>159.35238095238068</v>
       </c>
       <c r="E66">
         <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>237.7604166666666</v>
-      </c>
-      <c r="B67" s="1">
-        <v>163.2916666666666</v>
+      <c r="A67">
+        <v>237.5</v>
+      </c>
+      <c r="B67">
+        <v>163.08888888888862</v>
       </c>
       <c r="D67">
-        <v>163.3416666666663</v>
+        <v>162.01428571428528</v>
       </c>
       <c r="E67">
         <v>237.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>235.2552083333332</v>
-      </c>
-      <c r="B68" s="1">
-        <v>165.8624999966666</v>
+      <c r="A68">
+        <v>235</v>
+      </c>
+      <c r="B68">
+        <v>165.6999999999997</v>
       </c>
       <c r="D68">
-        <v>165.78749999999971</v>
+        <v>164.4666666666661</v>
       </c>
       <c r="E68">
         <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>232.78645834333321</v>
-      </c>
-      <c r="B69" s="1">
-        <v>168.60416667666661</v>
+      <c r="A69">
+        <v>232.5</v>
+      </c>
+      <c r="B69">
+        <v>168.12222222222192</v>
       </c>
       <c r="D69">
-        <v>168.02916666666641</v>
+        <v>167.17142857142801</v>
       </c>
       <c r="E69">
         <v>232.5</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>230.2760416699999</v>
-      </c>
-      <c r="B70" s="1">
-        <v>171.17916666333332</v>
+      <c r="A70">
+        <v>230</v>
+      </c>
+      <c r="B70">
+        <v>170.72222222222166</v>
       </c>
       <c r="D70">
-        <v>170.41249999999962</v>
+        <v>169.75714285714241</v>
       </c>
       <c r="E70">
         <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>227.7708333333332</v>
-      </c>
-      <c r="B71" s="1">
-        <v>173.58333333666661</v>
+      <c r="A71">
+        <v>227.5</v>
+      </c>
+      <c r="B71">
+        <v>173.12222222222181</v>
       </c>
       <c r="D71">
-        <v>172.95416666666623</v>
+        <v>172.37142857142808</v>
       </c>
       <c r="E71">
         <v>227.5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>225.24479166333316</v>
-      </c>
-      <c r="B72" s="1">
-        <v>176.27083334333321</v>
+      <c r="A72">
+        <v>225</v>
+      </c>
+      <c r="B72">
+        <v>175.55555555555529</v>
       </c>
       <c r="D72">
-        <v>175.50416666666632</v>
+        <v>174.86666666666639</v>
       </c>
       <c r="E72">
         <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>222.74999999333323</v>
-      </c>
-      <c r="B73" s="1">
-        <v>178.68333333666661</v>
+      <c r="A73">
+        <v>222.5</v>
+      </c>
+      <c r="B73">
+        <v>177.81111111111073</v>
       </c>
       <c r="D73">
-        <v>177.94166666666632</v>
+        <v>177.45238095238051</v>
       </c>
       <c r="E73">
         <v>222.5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>220.3333333299999</v>
-      </c>
-      <c r="B74" s="1">
-        <v>181.45</v>
+      <c r="A74">
+        <v>220</v>
+      </c>
+      <c r="B74">
+        <v>180.61111111111069</v>
       </c>
       <c r="D74">
-        <v>180.35833333333304</v>
+        <v>180.02857142857098</v>
       </c>
       <c r="E74">
         <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>217.78124999333323</v>
-      </c>
-      <c r="B75" s="1">
-        <v>183.37500000666651</v>
+      <c r="A75">
+        <v>217.5</v>
+      </c>
+      <c r="B75">
+        <v>183.28888888888861</v>
       </c>
       <c r="D75">
-        <v>182.6749999999997</v>
+        <v>182.4571428571426</v>
       </c>
       <c r="E75">
         <v>217.5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>215.3333333299999</v>
-      </c>
-      <c r="B76" s="1">
-        <v>186.19999999666661</v>
+      <c r="A76">
+        <v>215</v>
+      </c>
+      <c r="B76">
+        <v>185.9666666666663</v>
       </c>
       <c r="D76">
-        <v>185.32916666666642</v>
+        <v>184.83809523809461</v>
       </c>
       <c r="E76">
         <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>212.8385416699999</v>
-      </c>
-      <c r="B77" s="1">
-        <v>188.77916667</v>
+      <c r="A77">
+        <v>212.5</v>
+      </c>
+      <c r="B77">
+        <v>188.18888888888861</v>
       </c>
       <c r="D77">
-        <v>187.79999999999973</v>
+        <v>187.45714285714232</v>
       </c>
       <c r="E77">
         <v>212.5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>210.31249999999991</v>
-      </c>
-      <c r="B78" s="1">
-        <v>191.20000000999988</v>
+      <c r="A78">
+        <v>210</v>
+      </c>
+      <c r="B78">
+        <v>190.51111111111058</v>
       </c>
       <c r="D78">
-        <v>190.20833333333312</v>
+        <v>189.83333333333289</v>
       </c>
       <c r="E78">
         <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>207.78124998666664</v>
-      </c>
-      <c r="B79" s="1">
-        <v>193.6583333333333</v>
+      <c r="A79">
+        <v>207.5</v>
+      </c>
+      <c r="B79">
+        <v>192.944444444444</v>
       </c>
       <c r="D79">
-        <v>192.74999999999972</v>
+        <v>192.42380952380913</v>
       </c>
       <c r="E79">
         <v>207.5</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>205.30729165999992</v>
-      </c>
-      <c r="B80" s="1">
-        <v>196.15416665999993</v>
+      <c r="A80">
+        <v>205</v>
+      </c>
+      <c r="B80">
+        <v>195.0777777777773</v>
       </c>
       <c r="D80">
-        <v>195.19166666666644</v>
+        <v>194.91904761904712</v>
       </c>
       <c r="E80">
         <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>202.6510416733332</v>
-      </c>
-      <c r="B81" s="1">
-        <v>198.04583333999989</v>
+      <c r="A81">
+        <v>202.5</v>
+      </c>
+      <c r="B81">
+        <v>197.41111111111081</v>
       </c>
       <c r="D81">
-        <v>197.5541666666663</v>
+        <v>197.46666666666641</v>
       </c>
       <c r="E81">
         <v>202.5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>200</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>200</v>
       </c>
       <c r="D82">
